--- a/biology/Botanique/Elaeagnus_×submacrophylla/Elaeagnus_×submacrophylla.xlsx
+++ b/biology/Botanique/Elaeagnus_×submacrophylla/Elaeagnus_×submacrophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elaeagnus_%C3%97submacrophylla</t>
+          <t>Elaeagnus_×submacrophylla</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaeagnus ×submacrophylla, le Chalef d'Ebbing, est une espèce de plantes à fleurs de la famille des Élaéagnacées. C'est un hybride issu du croisement entre Elaeagnus macrophylla et Elaeagnus pungens. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elaeagnus_%C3%97submacrophylla</t>
+          <t>Elaeagnus_×submacrophylla</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaeagnus ×ebbingei Door.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elaeagnus_%C3%97submacrophylla</t>
+          <t>Elaeagnus_×submacrophylla</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste à port dressé et à feuillage persistant dont la taille peut atteindre jusqu'à 5 mètres de haut.
 Ses feuilles sont coriaces, vert foncé aux reflets gris sur le dessus et argentées sur le dessous.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elaeagnus_%C3%97submacrophylla</t>
+          <t>Elaeagnus_×submacrophylla</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Fixation de l'azote</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaeagnus ×submacrophylla a, comme beaucoup de plantes appartenant au genre Elaeagnus, la propriété d'héberger au niveau de ses racines des bactéries du sol capables de fixer l'azote présent dans l'atmosphère.
 </t>
